--- a/biology/Zoologie/Galidictis_grandidieri/Galidictis_grandidieri.xlsx
+++ b/biology/Zoologie/Galidictis_grandidieri/Galidictis_grandidieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mangouste de Grandidier
 La Mangouste de Grandidier (Galidictis grandidieri), Mangouste à bandes géantes ou Galidie de Grandidier est une mangouste malgache, un mammifère carnivore appartenant à la famille des Eupleridae. Elle est également connue sous le nom de Vontsira de Grandidier. L’espèce est nommée ainsi d’après Alfred Grandidier, naturaliste et explorateur français. Cette espèce de mangouste malgache est considérée comme l'un des carnivores les plus rares du monde.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Est de couleur brun pâle ou gris, a des rayures foncées sur le dos et sur les côtés. Elle se distingue de sa cousine la mangouste malgache à larges rayures (Galidictis fasciata) par sa taille qui est plus grande et ses rayures qui ne sont pas aussi larges. Pèse entre 500 et 600 g.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce petit mammifère ne vit que dans une très petite zone du sud-ouest Madagascar, à la pointe méridionale de l’île, dans des zones désertiques de végétation à forêts épineuses. À quelques exceptions près, la majorité de ses représentants provient d'une zone étroite à l'extrémité ouest du plateau Mahafaly dans le Parc national de Tsimanampetsotsa, ce qui en fait le carnivore malgache avec la plus petite étendue.
 </t>
@@ -574,15 +590,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Petit mammifère nocturne. Il est sociable et joueur mais son mode de vie reste méconnu.
-Reproduction
-Cet animal vit en couple et donne une descendances tous les ans, en été.
-Habitat
-En raison de la chaleur intense du désert, ils vivent dans des trous durant la journée. Ils émergent seulement au soir, où l'air est frais, pour chasser.
-Alimentation
-Carnivore, se nourrit presque exclusivement d'arthropodes tels que les cafards géants et les scorpions.
 </t>
         </is>
       </c>
@@ -608,10 +620,123 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet animal vit en couple et donne une descendances tous les ans, en été.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Galidictis_grandidieri</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galidictis_grandidieri</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En raison de la chaleur intense du désert, ils vivent dans des trous durant la journée. Ils émergent seulement au soir, où l'air est frais, pour chasser.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Galidictis_grandidieri</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galidictis_grandidieri</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carnivore, se nourrit presque exclusivement d'arthropodes tels que les cafards géants et les scorpions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Galidictis_grandidieri</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galidictis_grandidieri</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Survie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Seules les espèces résistantes et capables de s'adapter ont survécu à l’aridité du désert.
 </t>
